--- a/test/LonelyLobsterTetsts_v01.xlsx
+++ b/test/LonelyLobsterTetsts_v01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\gerold\sw_projects\lonely_lobster\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC971F8A-8EC4-4CB3-B265-E6524DD6DC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2114BF17-CB13-414B-8BAC-1EF2325022F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="187">
   <si>
     <t xml:space="preserve">Lonely Lobster </t>
   </si>
@@ -592,6 +592,9 @@
   </si>
   <si>
     <t>very little TP, most work goes into further unfinished inventory; the few items that get through do it in relativly short CTs</t>
+  </si>
+  <si>
+    <t>good regression test cases</t>
   </si>
 </sst>
 </file>
@@ -615,7 +618,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -646,6 +649,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -659,7 +668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -701,6 +710,17 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -985,19 +1005,21 @@
   <dimension ref="A1:R209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D58" sqref="D58"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.109375" customWidth="1"/>
-    <col min="2" max="4" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
     <col min="5" max="5" width="28.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="59.109375" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="13" width="8.109375" customWidth="1"/>
     <col min="14" max="14" width="8.88671875" style="2"/>
@@ -1013,6 +1035,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E2" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="I3" t="s">
@@ -2168,49 +2195,51 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+    <row r="32" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="18">
         <v>39</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="I32" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J32" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="K32" s="8" t="s">
+      <c r="K32" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="L32" s="8" t="s">
+      <c r="L32" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="M32" s="8" t="s">
+      <c r="M32" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="O32" s="15" t="s">
+      <c r="N32" s="18"/>
+      <c r="O32" s="22" t="s">
         <v>128</v>
       </c>
+      <c r="P32" s="22"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
@@ -2600,50 +2629,51 @@
         <v>159</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+    <row r="45" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="18">
         <v>160</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="H45" s="13" t="s">
+      <c r="H45" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="I45" s="8">
+      <c r="I45" s="21">
         <v>3</v>
       </c>
-      <c r="J45" s="8">
+      <c r="J45" s="21">
         <v>5</v>
       </c>
-      <c r="K45" s="8">
+      <c r="K45" s="21">
         <v>20</v>
       </c>
-      <c r="L45" s="8">
+      <c r="L45" s="21">
         <v>1.3</v>
       </c>
-      <c r="M45" s="8">
+      <c r="M45" s="21">
         <v>8</v>
       </c>
-      <c r="O45" s="15" t="s">
+      <c r="N45" s="18"/>
+      <c r="O45" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="P45" s="15" t="s">
+      <c r="P45" s="22" t="s">
         <v>162</v>
       </c>
     </row>
